--- a/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
+++ b/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\a-Fpga implementation\vhdl_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214488D4-AE62-4CF5-ADEA-35DD50286F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A273EE4-9D08-4E97-8306-013EACE71AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D251902-0D70-47B3-89AB-CAC992F825E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>f1a3</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Control logic</t>
+  </si>
+  <si>
+    <t>https://www.binaryhexconverter.com/binary-to-hex-converter</t>
+  </si>
+  <si>
+    <t>--&gt; tolerates tab form of binary</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>op</t>
   </si>
 </sst>
 </file>
@@ -81,7 +93,7 @@
     <numFmt numFmtId="166" formatCode="&quot; \ &quot;\,0"/>
     <numFmt numFmtId="167" formatCode="&quot;\&quot;\a"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +116,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,10 +142,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,8 +154,11 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0619A2EF-2351-408B-87E1-8CE21190F588}">
-  <dimension ref="D17:M40"/>
+  <dimension ref="A17:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>7</v>
       </c>
@@ -513,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>7</v>
       </c>
@@ -528,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>7</v>
       </c>
@@ -543,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D36" s="2"/>
       <c r="E36" t="s">
         <v>7</v>
@@ -555,20 +579,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D37" s="2"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L40" s="2"/>
       <c r="M40" s="4"/>
     </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1" xr:uid="{04FA45C6-AB62-451F-A712-05847D4CCF9A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
+++ b/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\a-Fpga implementation\vhdl_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A273EE4-9D08-4E97-8306-013EACE71AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C3109-F9DC-40A4-B33F-4759619C6395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D251902-0D70-47B3-89AB-CAC992F825E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>f1a3</t>
   </si>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>op</t>
+  </si>
+  <si>
+    <t>clock_reg_input</t>
+  </si>
+  <si>
+    <t>clock_reg_update</t>
+  </si>
+  <si>
+    <t>write_enable</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>decoder_write_select</t>
+  </si>
+  <si>
+    <t>decoder_read_select</t>
+  </si>
+  <si>
+    <t>Control signals</t>
+  </si>
+  <si>
+    <t>alu</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>flag_reg_set</t>
+  </si>
+  <si>
+    <t>Instruction format</t>
   </si>
 </sst>
 </file>
@@ -93,7 +141,7 @@
     <numFmt numFmtId="166" formatCode="&quot; \ &quot;\,0"/>
     <numFmt numFmtId="167" formatCode="&quot;\&quot;\a"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +172,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,6 +220,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0619A2EF-2351-408B-87E1-8CE21190F588}">
-  <dimension ref="A17:M47"/>
+  <dimension ref="A17:Y81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="E72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S91" sqref="S91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +697,129 @@
       </c>
       <c r="M47">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:25" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" t="s">
+        <v>22</v>
+      </c>
+      <c r="U60" t="s">
+        <v>25</v>
+      </c>
+      <c r="V60" t="s">
+        <v>26</v>
+      </c>
+      <c r="W60" t="s">
+        <v>27</v>
+      </c>
+      <c r="X60" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="7:25" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
+++ b/A- current/a-Fpga implementation/vhdl_gen/control logic tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\Desktop\16 bit computer\A- current\a-Fpga implementation\vhdl_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980C3109-F9DC-40A4-B33F-4759619C6395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCFC447-27CA-4228-B9F4-64CF36E61A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0D251902-0D70-47B3-89AB-CAC992F825E7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>f1a3</t>
   </si>
@@ -129,6 +129,66 @@
   </si>
   <si>
     <t>Instruction format</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro </t>
+  </si>
+  <si>
+    <t>mirco</t>
+  </si>
+  <si>
+    <t>read addr =0000</t>
+  </si>
+  <si>
+    <t>ns1</t>
+  </si>
+  <si>
+    <t>ns0</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>program_counter-&gt;ram</t>
+  </si>
+  <si>
+    <t>ram_write_enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentest-&gt;  </t>
+  </si>
+  <si>
+    <t>ram out connected to</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>program counter connected to display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input </t>
+  </si>
+  <si>
+    <t>extra info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next state </t>
+  </si>
+  <si>
+    <t>ns3</t>
+  </si>
+  <si>
+    <t>program_counter_increment</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -189,12 +249,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -222,6 +294,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0619A2EF-2351-408B-87E1-8CE21190F588}">
-  <dimension ref="A17:Y81"/>
+  <dimension ref="A17:AE157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S91" sqref="S91"/>
+    <sheetView tabSelected="1" topLeftCell="G85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T103" sqref="T103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:30" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>0</v>
       </c>
@@ -820,6 +894,934 @@
       </c>
       <c r="Y81">
         <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" t="s">
+        <v>31</v>
+      </c>
+      <c r="O87" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>31</v>
+      </c>
+      <c r="R87" t="s">
+        <v>31</v>
+      </c>
+      <c r="S87" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" t="s">
+        <v>31</v>
+      </c>
+      <c r="V87" t="s">
+        <v>31</v>
+      </c>
+      <c r="W87" t="s">
+        <v>31</v>
+      </c>
+      <c r="X87" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" t="s">
+        <v>31</v>
+      </c>
+      <c r="O88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>31</v>
+      </c>
+      <c r="R88" t="s">
+        <v>31</v>
+      </c>
+      <c r="S88" t="s">
+        <v>31</v>
+      </c>
+      <c r="T88" t="s">
+        <v>31</v>
+      </c>
+      <c r="V88" t="s">
+        <v>31</v>
+      </c>
+      <c r="W88" t="s">
+        <v>31</v>
+      </c>
+      <c r="X88" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96" s="11"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+    </row>
+    <row r="98" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O98" s="11"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+    </row>
+    <row r="99" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O99" s="11"/>
+      <c r="Q99" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R99" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S99" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11">
+        <v>0</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0</v>
+      </c>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="12">
+        <v>0</v>
+      </c>
+      <c r="R100" s="12">
+        <v>0</v>
+      </c>
+      <c r="S100" s="12">
+        <v>1</v>
+      </c>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12">
+        <v>0</v>
+      </c>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12"/>
+      <c r="AE100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I101" s="11"/>
+      <c r="J101" s="11">
+        <v>1</v>
+      </c>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11">
+        <v>0</v>
+      </c>
+      <c r="M101" s="11">
+        <v>0</v>
+      </c>
+      <c r="N101" s="11">
+        <v>0</v>
+      </c>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="12">
+        <v>0</v>
+      </c>
+      <c r="R101" s="12">
+        <v>0</v>
+      </c>
+      <c r="S101" s="12">
+        <v>1</v>
+      </c>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12">
+        <v>0</v>
+      </c>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12"/>
+      <c r="AE101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I102" s="11"/>
+      <c r="J102" s="11">
+        <v>0</v>
+      </c>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>1</v>
+      </c>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="12">
+        <v>0</v>
+      </c>
+      <c r="R102" s="12">
+        <v>1</v>
+      </c>
+      <c r="S102" s="12">
+        <v>0</v>
+      </c>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12">
+        <v>1</v>
+      </c>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I103" s="11"/>
+      <c r="J103" s="11">
+        <v>1</v>
+      </c>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11">
+        <v>0</v>
+      </c>
+      <c r="M103" s="11">
+        <v>0</v>
+      </c>
+      <c r="N103" s="11">
+        <v>1</v>
+      </c>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q103" s="12">
+        <v>0</v>
+      </c>
+      <c r="R103" s="12">
+        <v>1</v>
+      </c>
+      <c r="S103" s="12">
+        <v>0</v>
+      </c>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12">
+        <v>1</v>
+      </c>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I104" s="11"/>
+      <c r="J104" s="11">
+        <v>0</v>
+      </c>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11">
+        <v>0</v>
+      </c>
+      <c r="M104" s="11">
+        <v>1</v>
+      </c>
+      <c r="N104" s="11">
+        <v>0</v>
+      </c>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="12">
+        <v>0</v>
+      </c>
+      <c r="R104" s="12">
+        <v>1</v>
+      </c>
+      <c r="S104" s="12">
+        <v>1</v>
+      </c>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12">
+        <v>0</v>
+      </c>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I105" s="11"/>
+      <c r="J105" s="11">
+        <v>1</v>
+      </c>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11">
+        <v>0</v>
+      </c>
+      <c r="M105" s="11">
+        <v>1</v>
+      </c>
+      <c r="N105" s="11">
+        <v>0</v>
+      </c>
+      <c r="O105" s="11"/>
+      <c r="P105" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q105" s="12">
+        <v>0</v>
+      </c>
+      <c r="R105" s="12">
+        <v>1</v>
+      </c>
+      <c r="S105" s="12">
+        <v>1</v>
+      </c>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12">
+        <v>0</v>
+      </c>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I106" s="11"/>
+      <c r="J106" s="11">
+        <v>0</v>
+      </c>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
+        <v>1</v>
+      </c>
+      <c r="N106" s="11">
+        <v>1</v>
+      </c>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="12">
+        <v>0</v>
+      </c>
+      <c r="R106" s="12">
+        <v>0</v>
+      </c>
+      <c r="S106" s="12">
+        <v>0</v>
+      </c>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12">
+        <v>0</v>
+      </c>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="I107" s="11"/>
+      <c r="J107" s="11">
+        <v>1</v>
+      </c>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11">
+        <v>0</v>
+      </c>
+      <c r="M107" s="11">
+        <v>1</v>
+      </c>
+      <c r="N107" s="11">
+        <v>1</v>
+      </c>
+      <c r="O107" s="11"/>
+      <c r="P107" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q107" s="12">
+        <v>0</v>
+      </c>
+      <c r="R107" s="12">
+        <v>0</v>
+      </c>
+      <c r="S107" s="12">
+        <v>0</v>
+      </c>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12">
+        <v>0</v>
+      </c>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>43</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>7</v>
+      </c>
+      <c r="K150" t="s">
+        <v>6</v>
+      </c>
+      <c r="L150" s="11">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>9</v>
+      </c>
+      <c r="N150" t="s">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>7</v>
+      </c>
+      <c r="K151" t="s">
+        <v>6</v>
+      </c>
+      <c r="L151" s="11">
+        <v>8</v>
+      </c>
+      <c r="M151">
+        <v>9</v>
+      </c>
+      <c r="N151" t="s">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+      <c r="K152" t="s">
+        <v>6</v>
+      </c>
+      <c r="L152" s="11">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>16</v>
+      </c>
+      <c r="N152" t="s">
+        <v>5</v>
+      </c>
+      <c r="O152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>7</v>
+      </c>
+      <c r="K153" t="s">
+        <v>6</v>
+      </c>
+      <c r="L153" s="11">
+        <v>9</v>
+      </c>
+      <c r="M153">
+        <v>16</v>
+      </c>
+      <c r="N153" t="s">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>7</v>
+      </c>
+      <c r="K154" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" s="11">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>18</v>
+      </c>
+      <c r="N154" t="s">
+        <v>5</v>
+      </c>
+      <c r="O154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>7</v>
+      </c>
+      <c r="K155" t="s">
+        <v>6</v>
+      </c>
+      <c r="L155" t="s">
+        <v>49</v>
+      </c>
+      <c r="M155">
+        <v>18</v>
+      </c>
+      <c r="N155" t="s">
+        <v>5</v>
+      </c>
+      <c r="O155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" t="s">
+        <v>6</v>
+      </c>
+      <c r="L156" s="11">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>7</v>
+      </c>
+      <c r="K157" t="s">
+        <v>6</v>
+      </c>
+      <c r="L157" t="s">
+        <v>50</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
+        <v>5</v>
+      </c>
+      <c r="O157" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
